--- a/verification/model_verification_results_118_buses.xlsx
+++ b/verification/model_verification_results_118_buses.xlsx
@@ -557,10 +557,10 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>154172.734375</v>
+        <v>154172.25</v>
       </c>
       <c r="C9">
-        <v>0.433578222990036</v>
+        <v>0.2941376268863678</v>
       </c>
     </row>
     <row r="10" spans="1:5">
